--- a/data/predictions/diffs/RvI.xlsx
+++ b/data/predictions/diffs/RvI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>abortion Predicted unrestricted</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>spending/alt_energy Too little</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -953,13 +959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GM39"/>
+  <dimension ref="A1:GO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:195">
+    <row r="1" spans="1:197">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,8 +1548,14 @@
       <c r="GM1" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="GN1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="2" spans="1:195">
+    <row r="2" spans="1:197">
       <c r="A2" s="1">
         <v>1972</v>
       </c>
@@ -1565,8 +1577,14 @@
       <c r="Q2">
         <v>0.1037602945458505</v>
       </c>
+      <c r="GN2">
+        <v>0.06492713111419771</v>
+      </c>
+      <c r="GO2">
+        <v>0.0757968719794881</v>
+      </c>
     </row>
-    <row r="3" spans="1:195">
+    <row r="3" spans="1:197">
       <c r="A3" s="1">
         <v>1973</v>
       </c>
@@ -1693,8 +1711,14 @@
       <c r="GG3">
         <v>0.1196512632050541</v>
       </c>
+      <c r="GN3">
+        <v>0.05954819471522421</v>
+      </c>
+      <c r="GO3">
+        <v>0.06804928575983514</v>
+      </c>
     </row>
-    <row r="4" spans="1:195">
+    <row r="4" spans="1:197">
       <c r="A4" s="1">
         <v>1974</v>
       </c>
@@ -1830,8 +1854,14 @@
       <c r="GG4">
         <v>0.07116128537776956</v>
       </c>
+      <c r="GN4">
+        <v>0.04559604470821878</v>
+      </c>
+      <c r="GO4">
+        <v>0.05336595500056787</v>
+      </c>
     </row>
-    <row r="5" spans="1:195">
+    <row r="5" spans="1:197">
       <c r="A5" s="1">
         <v>1975</v>
       </c>
@@ -1988,8 +2018,14 @@
       <c r="GG5">
         <v>0.1148105860928739</v>
       </c>
+      <c r="GN5">
+        <v>0.04952245171802368</v>
+      </c>
+      <c r="GO5">
+        <v>0.05633621046424416</v>
+      </c>
     </row>
-    <row r="6" spans="1:195">
+    <row r="6" spans="1:197">
       <c r="A6" s="1">
         <v>1976</v>
       </c>
@@ -2131,8 +2167,14 @@
       <c r="GG6">
         <v>0.08088792112820054</v>
       </c>
+      <c r="GN6">
+        <v>0.04142478983446899</v>
+      </c>
+      <c r="GO6">
+        <v>0.05489675520723238</v>
+      </c>
     </row>
-    <row r="7" spans="1:195">
+    <row r="7" spans="1:197">
       <c r="A7" s="1">
         <v>1977</v>
       </c>
@@ -2292,8 +2334,14 @@
       <c r="GG7">
         <v>0.1603133141154392</v>
       </c>
+      <c r="GN7">
+        <v>0.0436879927671078</v>
+      </c>
+      <c r="GO7">
+        <v>0.0528218085060595</v>
+      </c>
     </row>
-    <row r="8" spans="1:195">
+    <row r="8" spans="1:197">
       <c r="A8" s="1">
         <v>1978</v>
       </c>
@@ -2435,8 +2483,14 @@
       <c r="GG8">
         <v>0.09917583500926691</v>
       </c>
+      <c r="GN8">
+        <v>0.05026260084230465</v>
+      </c>
+      <c r="GO8">
+        <v>0.06903855397880916</v>
+      </c>
     </row>
-    <row r="9" spans="1:195">
+    <row r="9" spans="1:197">
       <c r="A9" s="1">
         <v>1980</v>
       </c>
@@ -2569,8 +2623,14 @@
       <c r="GG9">
         <v>0.09812531730353269</v>
       </c>
+      <c r="GN9">
+        <v>0.05908349548126617</v>
+      </c>
+      <c r="GO9">
+        <v>0.05986327802507835</v>
+      </c>
     </row>
-    <row r="10" spans="1:195">
+    <row r="10" spans="1:197">
       <c r="A10" s="1">
         <v>1982</v>
       </c>
@@ -2706,8 +2766,14 @@
       <c r="GG10">
         <v>0.08354715155487069</v>
       </c>
+      <c r="GN10">
+        <v>0.05739485971348544</v>
+      </c>
+      <c r="GO10">
+        <v>0.06143359625055841</v>
+      </c>
     </row>
-    <row r="11" spans="1:195">
+    <row r="11" spans="1:197">
       <c r="A11" s="1">
         <v>1983</v>
       </c>
@@ -2864,8 +2930,14 @@
       <c r="GG11">
         <v>0.01180891035963505</v>
       </c>
+      <c r="GN11">
+        <v>0.04525268982783115</v>
+      </c>
+      <c r="GO11">
+        <v>0.06035815131345703</v>
+      </c>
     </row>
-    <row r="12" spans="1:195">
+    <row r="12" spans="1:197">
       <c r="A12" s="1">
         <v>1984</v>
       </c>
@@ -3049,8 +3121,14 @@
       <c r="GG12">
         <v>0.1543036128035699</v>
       </c>
+      <c r="GN12">
+        <v>0.06996942114147531</v>
+      </c>
+      <c r="GO12">
+        <v>0.07924467085364247</v>
+      </c>
     </row>
-    <row r="13" spans="1:195">
+    <row r="13" spans="1:197">
       <c r="A13" s="1">
         <v>1985</v>
       </c>
@@ -3246,8 +3324,14 @@
       <c r="GG13">
         <v>0.04147868160600232</v>
       </c>
+      <c r="GN13">
+        <v>0.04383047884430342</v>
+      </c>
+      <c r="GO13">
+        <v>0.05436939435906307</v>
+      </c>
     </row>
-    <row r="14" spans="1:195">
+    <row r="14" spans="1:197">
       <c r="A14" s="1">
         <v>1986</v>
       </c>
@@ -3455,8 +3539,14 @@
       <c r="GG14">
         <v>0.02689604143544211</v>
       </c>
+      <c r="GN14">
+        <v>0.06019557502070771</v>
+      </c>
+      <c r="GO14">
+        <v>0.06812383881340887</v>
+      </c>
     </row>
-    <row r="15" spans="1:195">
+    <row r="15" spans="1:197">
       <c r="A15" s="1">
         <v>1987</v>
       </c>
@@ -3640,8 +3730,14 @@
       <c r="GG15">
         <v>0.1657475129838396</v>
       </c>
+      <c r="GN15">
+        <v>0.06335435269637818</v>
+      </c>
+      <c r="GO15">
+        <v>0.07664991404343802</v>
+      </c>
     </row>
-    <row r="16" spans="1:195">
+    <row r="16" spans="1:197">
       <c r="A16" s="1">
         <v>1988</v>
       </c>
@@ -3873,8 +3969,14 @@
       <c r="GG16">
         <v>0.03055319029781878</v>
       </c>
+      <c r="GN16">
+        <v>0.03378526524118129</v>
+      </c>
+      <c r="GO16">
+        <v>0.04914515428127104</v>
+      </c>
     </row>
-    <row r="17" spans="1:195">
+    <row r="17" spans="1:197">
       <c r="A17" s="1">
         <v>1989</v>
       </c>
@@ -4091,8 +4193,14 @@
       <c r="GG17">
         <v>0.110589748817602</v>
       </c>
+      <c r="GN17">
+        <v>0.06945912342215299</v>
+      </c>
+      <c r="GO17">
+        <v>0.07644844002632058</v>
+      </c>
     </row>
-    <row r="18" spans="1:195">
+    <row r="18" spans="1:197">
       <c r="A18" s="1">
         <v>1990</v>
       </c>
@@ -4318,8 +4426,14 @@
       <c r="GG18">
         <v>0.1266078595252821</v>
       </c>
+      <c r="GN18">
+        <v>0.04420389547869855</v>
+      </c>
+      <c r="GO18">
+        <v>0.05168570658453252</v>
+      </c>
     </row>
-    <row r="19" spans="1:195">
+    <row r="19" spans="1:197">
       <c r="A19" s="1">
         <v>1991</v>
       </c>
@@ -4536,8 +4650,14 @@
       <c r="GG19">
         <v>0.007537292428933307</v>
       </c>
+      <c r="GN19">
+        <v>0.04588610563842762</v>
+      </c>
+      <c r="GO19">
+        <v>0.05434123243847376</v>
+      </c>
     </row>
-    <row r="20" spans="1:195">
+    <row r="20" spans="1:197">
       <c r="A20" s="1">
         <v>1993</v>
       </c>
@@ -4754,8 +4874,14 @@
       <c r="GG20">
         <v>0.09647627745364373</v>
       </c>
+      <c r="GN20">
+        <v>0.03924229766886447</v>
+      </c>
+      <c r="GO20">
+        <v>0.06040701921698417</v>
+      </c>
     </row>
-    <row r="21" spans="1:195">
+    <row r="21" spans="1:197">
       <c r="A21" s="1">
         <v>1994</v>
       </c>
@@ -4993,8 +5119,14 @@
       <c r="GG21">
         <v>0.04878816136963193</v>
       </c>
+      <c r="GN21">
+        <v>0.04150649571336934</v>
+      </c>
+      <c r="GO21">
+        <v>0.05195684417002587</v>
+      </c>
     </row>
-    <row r="22" spans="1:195">
+    <row r="22" spans="1:197">
       <c r="A22" s="1">
         <v>1996</v>
       </c>
@@ -5232,8 +5364,14 @@
       <c r="GG22">
         <v>0.06543207961513153</v>
       </c>
+      <c r="GN22">
+        <v>0.07897046937148898</v>
+      </c>
+      <c r="GO22">
+        <v>0.08601444264987342</v>
+      </c>
     </row>
-    <row r="23" spans="1:195">
+    <row r="23" spans="1:197">
       <c r="A23" s="1">
         <v>1998</v>
       </c>
@@ -5471,8 +5609,14 @@
       <c r="GG23">
         <v>0.06355356631710418</v>
       </c>
+      <c r="GN23">
+        <v>0.05039943822731808</v>
+      </c>
+      <c r="GO23">
+        <v>0.06061366949161935</v>
+      </c>
     </row>
-    <row r="24" spans="1:195">
+    <row r="24" spans="1:197">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
@@ -5719,8 +5863,14 @@
       <c r="GG24">
         <v>0.008914972020909517</v>
       </c>
+      <c r="GN24">
+        <v>0.05914129157204911</v>
+      </c>
+      <c r="GO24">
+        <v>0.06331372067411344</v>
+      </c>
     </row>
-    <row r="25" spans="1:195">
+    <row r="25" spans="1:197">
       <c r="A25" s="1">
         <v>2002</v>
       </c>
@@ -5976,8 +6126,14 @@
       <c r="GG25">
         <v>0.05402889554824619</v>
       </c>
+      <c r="GN25">
+        <v>0.07035366682473812</v>
+      </c>
+      <c r="GO25">
+        <v>0.0787873390655391</v>
+      </c>
     </row>
-    <row r="26" spans="1:195">
+    <row r="26" spans="1:197">
       <c r="A26" s="1">
         <v>2004</v>
       </c>
@@ -6263,8 +6419,14 @@
       <c r="GG26">
         <v>0.1287810800561491</v>
       </c>
+      <c r="GN26">
+        <v>0.05942264324603739</v>
+      </c>
+      <c r="GO26">
+        <v>0.06637041092563911</v>
+      </c>
     </row>
-    <row r="27" spans="1:195">
+    <row r="27" spans="1:197">
       <c r="A27" s="1">
         <v>2006</v>
       </c>
@@ -6550,8 +6712,14 @@
       <c r="GG27">
         <v>0.07612244761847586</v>
       </c>
+      <c r="GN27">
+        <v>0.05863403453309644</v>
+      </c>
+      <c r="GO27">
+        <v>0.06889617167985772</v>
+      </c>
     </row>
-    <row r="28" spans="1:195">
+    <row r="28" spans="1:197">
       <c r="A28" s="1">
         <v>2008</v>
       </c>
@@ -6837,8 +7005,14 @@
       <c r="GG28">
         <v>0.05131391502656557</v>
       </c>
+      <c r="GN28">
+        <v>0.04885835634816743</v>
+      </c>
+      <c r="GO28">
+        <v>0.06278494846379003</v>
+      </c>
     </row>
-    <row r="29" spans="1:195">
+    <row r="29" spans="1:197">
       <c r="A29" s="1">
         <v>2010</v>
       </c>
@@ -7133,8 +7307,14 @@
       <c r="GM29">
         <v>0.06761150774015701</v>
       </c>
+      <c r="GN29">
+        <v>0.07083172848177266</v>
+      </c>
+      <c r="GO29">
+        <v>0.08135543849104185</v>
+      </c>
     </row>
-    <row r="30" spans="1:195">
+    <row r="30" spans="1:197">
       <c r="A30" s="1">
         <v>2012</v>
       </c>
@@ -7429,8 +7609,14 @@
       <c r="GM30">
         <v>9.835605846086892e-05</v>
       </c>
+      <c r="GN30">
+        <v>0.07045783134204839</v>
+      </c>
+      <c r="GO30">
+        <v>0.07679713616402165</v>
+      </c>
     </row>
-    <row r="31" spans="1:195">
+    <row r="31" spans="1:197">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -7725,8 +7911,14 @@
       <c r="GM31">
         <v>0.02163414605751512</v>
       </c>
+      <c r="GN31">
+        <v>0.06760281635959242</v>
+      </c>
+      <c r="GO31">
+        <v>0.07696781203621085</v>
+      </c>
     </row>
-    <row r="32" spans="1:195">
+    <row r="32" spans="1:197">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -8021,8 +8213,14 @@
       <c r="GM32">
         <v>0.05234779764633862</v>
       </c>
+      <c r="GN32">
+        <v>0.05234779764633862</v>
+      </c>
+      <c r="GO32">
+        <v>0.07490410162325252</v>
+      </c>
     </row>
-    <row r="33" spans="1:195">
+    <row r="33" spans="1:197">
       <c r="A33" s="1">
         <v>2018</v>
       </c>
@@ -8317,8 +8515,14 @@
       <c r="GM33">
         <v>0.1268348101586514</v>
       </c>
+      <c r="GN33">
+        <v>0.06816093173062215</v>
+      </c>
+      <c r="GO33">
+        <v>0.08119237187914451</v>
+      </c>
     </row>
-    <row r="34" spans="1:195">
+    <row r="34" spans="1:197">
       <c r="A34" s="1">
         <v>2019</v>
       </c>
@@ -8613,8 +8817,14 @@
       <c r="GL34">
         <v>0.1516585000840409</v>
       </c>
+      <c r="GN34">
+        <v>0.06134349289754393</v>
+      </c>
+      <c r="GO34">
+        <v>0.07519300865458096</v>
+      </c>
     </row>
-    <row r="35" spans="1:195">
+    <row r="35" spans="1:197">
       <c r="A35" s="1">
         <v>2020</v>
       </c>
@@ -8909,8 +9119,14 @@
       <c r="GL35">
         <v>0.1801243434645811</v>
       </c>
+      <c r="GN35">
+        <v>0.05574787994116193</v>
+      </c>
+      <c r="GO35">
+        <v>0.0772488716914721</v>
+      </c>
     </row>
-    <row r="36" spans="1:195">
+    <row r="36" spans="1:197">
       <c r="A36" s="1">
         <v>2021</v>
       </c>
@@ -9205,8 +9421,14 @@
       <c r="GL36">
         <v>0.2086086852599202</v>
       </c>
+      <c r="GN36">
+        <v>0.06516551249193259</v>
+      </c>
+      <c r="GO36">
+        <v>0.08043595248307688</v>
+      </c>
     </row>
-    <row r="37" spans="1:195">
+    <row r="37" spans="1:197">
       <c r="A37" s="1">
         <v>2022</v>
       </c>
@@ -9501,8 +9723,14 @@
       <c r="GL37">
         <v>0.2370745315511266</v>
       </c>
+      <c r="GN37">
+        <v>0.06386699765583789</v>
+      </c>
+      <c r="GO37">
+        <v>0.082018791204183</v>
+      </c>
     </row>
-    <row r="38" spans="1:195">
+    <row r="38" spans="1:197">
       <c r="A38" s="1">
         <v>2023</v>
       </c>
@@ -9797,8 +10025,14 @@
       <c r="GL38">
         <v>0.2655588704362575</v>
       </c>
+      <c r="GN38">
+        <v>0.07133072860537176</v>
+      </c>
+      <c r="GO38">
+        <v>0.08534793036867865</v>
+      </c>
     </row>
-    <row r="39" spans="1:195">
+    <row r="39" spans="1:197">
       <c r="A39" s="1">
         <v>2024</v>
       </c>
@@ -10092,6 +10326,12 @@
       </c>
       <c r="GL39">
         <v>0.2940247196372142</v>
+      </c>
+      <c r="GN39">
+        <v>0.07355415576823715</v>
+      </c>
+      <c r="GO39">
+        <v>0.09008745511874443</v>
       </c>
     </row>
   </sheetData>

--- a/data/predictions/diffs/RvI.xlsx
+++ b/data/predictions/diffs/RvI.xlsx
@@ -1578,10 +1578,10 @@
         <v>0.1037602945458505</v>
       </c>
       <c r="GN2">
-        <v>0.06492713111419771</v>
+        <v>0.06521406580624733</v>
       </c>
       <c r="GO2">
-        <v>0.0757968719794881</v>
+        <v>0.07584245275088139</v>
       </c>
     </row>
     <row r="3" spans="1:197">
@@ -1855,10 +1855,10 @@
         <v>0.07116128537776956</v>
       </c>
       <c r="GN4">
-        <v>0.04559604470821878</v>
+        <v>0.04578839876342836</v>
       </c>
       <c r="GO4">
-        <v>0.05336595500056787</v>
+        <v>0.05337032105450451</v>
       </c>
     </row>
     <row r="5" spans="1:197">
@@ -2168,10 +2168,10 @@
         <v>0.08088792112820054</v>
       </c>
       <c r="GN6">
-        <v>0.04142478983446899</v>
+        <v>0.04151949255104601</v>
       </c>
       <c r="GO6">
-        <v>0.05489675520723238</v>
+        <v>0.05489881152948058</v>
       </c>
     </row>
     <row r="7" spans="1:197">
@@ -2335,10 +2335,10 @@
         <v>0.1603133141154392</v>
       </c>
       <c r="GN7">
-        <v>0.0436879927671078</v>
+        <v>0.04415714792177205</v>
       </c>
       <c r="GO7">
-        <v>0.0528218085060595</v>
+        <v>0.05283082231701255</v>
       </c>
     </row>
     <row r="8" spans="1:197">
@@ -2484,10 +2484,10 @@
         <v>0.09917583500926691</v>
       </c>
       <c r="GN8">
-        <v>0.05026260084230465</v>
+        <v>0.05098045090048597</v>
       </c>
       <c r="GO8">
-        <v>0.06903855397880916</v>
+        <v>0.06905414097672082</v>
       </c>
     </row>
     <row r="9" spans="1:197">
@@ -2767,10 +2767,10 @@
         <v>0.08354715155487069</v>
       </c>
       <c r="GN10">
-        <v>0.05739485971348544</v>
+        <v>0.05773919143866385</v>
       </c>
       <c r="GO10">
-        <v>0.06143359625055841</v>
+        <v>0.06144141189490542</v>
       </c>
     </row>
     <row r="11" spans="1:197">
@@ -3122,10 +3122,10 @@
         <v>0.1543036128035699</v>
       </c>
       <c r="GN12">
-        <v>0.06996942114147531</v>
+        <v>0.07025849664749945</v>
       </c>
       <c r="GO12">
-        <v>0.07924467085364247</v>
+        <v>0.07924948538253505</v>
       </c>
     </row>
     <row r="13" spans="1:197">
@@ -3325,10 +3325,10 @@
         <v>0.04147868160600232</v>
       </c>
       <c r="GN13">
-        <v>0.04383047884430342</v>
+        <v>0.04440841688138518</v>
       </c>
       <c r="GO13">
-        <v>0.05436939435906307</v>
+        <v>0.05437841902895229</v>
       </c>
     </row>
     <row r="14" spans="1:197">
@@ -3540,10 +3540,10 @@
         <v>0.02689604143544211</v>
       </c>
       <c r="GN14">
-        <v>0.06019557502070771</v>
+        <v>0.06124276941818423</v>
       </c>
       <c r="GO14">
-        <v>0.06812383881340887</v>
+        <v>0.06813923023038404</v>
       </c>
     </row>
     <row r="15" spans="1:197">
@@ -3731,10 +3731,10 @@
         <v>0.1657475129838396</v>
       </c>
       <c r="GN15">
-        <v>0.06335435269637818</v>
+        <v>0.06438510220989432</v>
       </c>
       <c r="GO15">
-        <v>0.07664991404343802</v>
+        <v>0.07666708109222087</v>
       </c>
     </row>
     <row r="16" spans="1:197">
@@ -3970,7 +3970,7 @@
         <v>0.03055319029781878</v>
       </c>
       <c r="GN16">
-        <v>0.03378526524118129</v>
+        <v>0.03378526524118131</v>
       </c>
       <c r="GO16">
         <v>0.04914515428127104</v>
@@ -5120,10 +5120,10 @@
         <v>0.04878816136963193</v>
       </c>
       <c r="GN21">
-        <v>0.04150649571336934</v>
+        <v>0.04158594021753899</v>
       </c>
       <c r="GO21">
-        <v>0.05195684417002587</v>
+        <v>0.05195786225962229</v>
       </c>
     </row>
     <row r="22" spans="1:197">
@@ -5365,10 +5365,10 @@
         <v>0.06543207961513153</v>
       </c>
       <c r="GN22">
-        <v>0.07897046937148898</v>
+        <v>0.07993515275147262</v>
       </c>
       <c r="GO22">
-        <v>0.08601444264987342</v>
+        <v>0.08602680516787575</v>
       </c>
     </row>
     <row r="23" spans="1:197">
@@ -5610,10 +5610,10 @@
         <v>0.06355356631710418</v>
       </c>
       <c r="GN23">
-        <v>0.05039943822731808</v>
+        <v>0.05068667235109429</v>
       </c>
       <c r="GO23">
-        <v>0.06061366949161935</v>
+        <v>0.06061735042683577</v>
       </c>
     </row>
     <row r="24" spans="1:197">
@@ -6127,10 +6127,10 @@
         <v>0.05402889554824619</v>
       </c>
       <c r="GN25">
-        <v>0.07035366682473812</v>
+        <v>0.07120273172144645</v>
       </c>
       <c r="GO25">
-        <v>0.0787873390655391</v>
+        <v>0.0787974432941366</v>
       </c>
     </row>
     <row r="26" spans="1:197">
@@ -6420,10 +6420,10 @@
         <v>0.1287810800561491</v>
       </c>
       <c r="GN26">
-        <v>0.05942264324603739</v>
+        <v>0.05947141738544663</v>
       </c>
       <c r="GO26">
-        <v>0.06637041092563911</v>
+        <v>0.06637092964776158</v>
       </c>
     </row>
     <row r="27" spans="1:197">
@@ -6713,10 +6713,10 @@
         <v>0.07612244761847586</v>
       </c>
       <c r="GN27">
-        <v>0.05863403453309644</v>
+        <v>0.05864055429092299</v>
       </c>
       <c r="GO27">
-        <v>0.06889617167985772</v>
+        <v>0.0688962410187053</v>
       </c>
     </row>
     <row r="28" spans="1:197">
@@ -7006,10 +7006,10 @@
         <v>0.05131391502656557</v>
       </c>
       <c r="GN28">
-        <v>0.04885835634816743</v>
+        <v>0.04895840022426247</v>
       </c>
       <c r="GO28">
-        <v>0.06278494846379003</v>
+        <v>0.06278601244918018</v>
       </c>
     </row>
     <row r="29" spans="1:197">
